--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,6 +101,14 @@
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -173,19 +181,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,13 +278,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.15"/>
   </cols>
   <sheetData>
@@ -303,7 +311,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -314,7 +322,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -325,7 +333,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -336,13 +344,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
